--- a/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -31,7 +31,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.14</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.14</t>
   </si>
   <si>
     <t>Version</t>

--- a/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-03-29T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -199,12 +199,18 @@
     <t>Autorisation préfectorale de Guyane art L4131-5</t>
   </si>
   <si>
+    <t>Autorisation d'exercice des médecins telle que prévue à l'article L4131-5 du Code de la Santé Publique en vigueur du 28/01/2005 au 26/07/2020.</t>
+  </si>
+  <si>
     <t>AM07</t>
   </si>
   <si>
     <t>Autorisation préfectorale de Saint-Pierre-et-Miquelon art L4131-5</t>
   </si>
   <si>
+    <t>Autorisation d'exercice des médecins telle que prévue à l'article L4131-5 du Code de la Santé Publique en vigueur du 22/06/2000 au 26/07/2020.</t>
+  </si>
+  <si>
     <t>AM08</t>
   </si>
   <si>
@@ -277,36 +283,54 @@
     <t>Autorisation Dir régionale jeunesse, sports et cohésion sociale (DR-D-JSCS)</t>
   </si>
   <si>
+    <t>Suite au Décret n°2020-1545 du 9 décembre 2020, les DR-D-JSCS n'existent plus depuis le 1er avril 2021. Les missions de certification des professions sociales et de santé non médicales sont reprises par les DREETS.</t>
+  </si>
+  <si>
     <t>AM20</t>
   </si>
   <si>
     <t>Autorisation Dir régionale économie, emploi, travail et solidarités (DREETS)</t>
   </si>
   <si>
+    <t>Depuis le 1er avril 2021, les DREETS sont en charge de la certification dans le domaine des professions sociales et des professions de santé non médicales. Ces directions ont en effet repris certaines missions des anciennes DR-D-JSCS, suite au Décret n°2020-1545 du 9 décembre 2020.</t>
+  </si>
+  <si>
     <t>AM21</t>
   </si>
   <si>
     <t>Autorisation DGARS GP, GF, MQ ou préfet SPM (art. L4131-5 et L4221-14-3)</t>
   </si>
   <si>
+    <t>Autorisation d'exercice des médecins, sages-femmes et chirurgiens-dentistes telle que prévue aux articles L4131-5 du Code de la Santé Publique en vigueur depuis le 26/07/2020 et des pharmaciens telle que prévue à l'article L4221-14-3 en vigueur depuis le 27/07/2019.</t>
+  </si>
+  <si>
     <t>AM22</t>
   </si>
   <si>
     <t>Agrément Caisse Régionale d'Assurance Maladie</t>
   </si>
   <si>
+    <t xml:space="preserve">Articles D4364-8 et D4364-9 du code de la santé publique (CSP) ; Arrêté du 1er février 2011 relatif aux professions de prothésiste et orthésiste </t>
+  </si>
+  <si>
     <t>AM23</t>
   </si>
   <si>
     <t>Agrément Ministère des anciens combattants</t>
   </si>
   <si>
+    <t>Articles D4364-8 et D4364-9 du code de la santé publique (CSP) ; Arrêté du 1er février 2011 relatif aux professions de prothésiste et orthésiste</t>
+  </si>
+  <si>
     <t>AM24</t>
   </si>
   <si>
     <t>Exerce comme tech lab avant le 08/11/1976</t>
   </si>
   <si>
+    <t>Article L4352-3-1 du code de la santé publique (CSP)</t>
+  </si>
+  <si>
     <t>AM25</t>
   </si>
   <si>
@@ -319,6 +343,9 @@
     <t>Exerce comme tech lab au 30/05/2013</t>
   </si>
   <si>
+    <t>Article L4352-3-2 du code de la santé publique (CSP)</t>
+  </si>
+  <si>
     <t>AM27</t>
   </si>
   <si>
@@ -331,54 +358,81 @@
     <t>Autorisation d'user du titre d'Ostéopathe</t>
   </si>
   <si>
+    <t>Article 16 du décret n° 2007-435 du 25 mars 2007 relatif aux actes et aux conditions d'exercice de l'ostéopathie Autorisation délivrée par l'autorité compétente pour user du titre dans le cadre de mesures transitoires mises en place lorsque la profession a été encadrée en 2007 afin d'intégrer les professionnels qui exerçaient avant cette date</t>
+  </si>
+  <si>
     <t>AM29</t>
   </si>
   <si>
     <t>Autorisation titre diététicien décision admin 86</t>
   </si>
   <si>
+    <t>Article L4371-6 2° du code de la santé publique (CSP)</t>
+  </si>
+  <si>
     <t>AM30</t>
   </si>
   <si>
     <t>Autorisation titre diététicien emploi permanent 86</t>
   </si>
   <si>
+    <t>Article L4371-6 1° du code de la santé publique (CSP)</t>
+  </si>
+  <si>
     <t>AM31</t>
   </si>
   <si>
     <t>Autorisation d'exercice de psychologue diplôme étranger</t>
   </si>
   <si>
+    <t>Art.1er, 5° du décret n°90-255 du 22 mars 1990 ; Décret n°2003-1073 du 14 novembre 2003</t>
+  </si>
+  <si>
     <t>AM32</t>
   </si>
   <si>
     <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
   </si>
   <si>
+    <t>Décret n°90-259 du 22 mars 1990</t>
+  </si>
+  <si>
     <t>AM33</t>
   </si>
   <si>
     <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
   </si>
   <si>
+    <t>Article 52 de la loi n° 2004-806 du 9 août 2004 relative à la politique de santé publique ; article 1 du décret n° 2010-534 du 20 mai 2010 relatif à l'usage du titre de psychothérapeute</t>
+  </si>
+  <si>
     <t>AM34</t>
   </si>
   <si>
     <t>Autorisation d'exercice d'audioprothésiste médecin</t>
   </si>
   <si>
+    <t>Article L4361-3 du code de la santé publique (CSP)</t>
+  </si>
+  <si>
     <t>AM35</t>
   </si>
   <si>
     <t>Autorisation d'user du titre de Chiropraxie</t>
   </si>
   <si>
+    <t>Article 23 du décret n° 2011-32 du 7 janvier 2011 relatif aux actes et aux conditions d'exercice de la chiropraxie</t>
+  </si>
+  <si>
     <t>AM36</t>
   </si>
   <si>
     <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
   </si>
   <si>
+    <t>Article 6 de l'arrêté du 1er février 2011 relatif aux professions de prothésiste et orthésiste</t>
+  </si>
+  <si>
     <t>AM37</t>
   </si>
   <si>
@@ -391,10 +445,34 @@
     <t>Arrêté de nomination de MER du Secteur Public</t>
   </si>
   <si>
+    <t>Article L4351-6 1° du code de la santé publique (CSP)</t>
+  </si>
+  <si>
     <t>AM39</t>
   </si>
   <si>
     <t>Autorisation d'exercice psychothérapeute médecin</t>
+  </si>
+  <si>
+    <t>Article 52 de la loi n° 2004-806 du 9 août 2004 relative à la politique de santé publique ; article 1 du décret n° 2010-534 du 20 mai 2010 relatif à l'usage du titre de psychothérapeute.</t>
+  </si>
+  <si>
+    <t>AM40</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice temporaire Nouvelle-Calédonie (loi du pays n°2023-8)</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice dérogatoire temporaire pour certains professionnels de santé, mise en place par la Loi du pays n° 2023-8 du 11 août 2023</t>
+  </si>
+  <si>
+    <t>AM41</t>
+  </si>
+  <si>
+    <t>Agrément de radiophysicien avant le 28/11/2004</t>
+  </si>
+  <si>
+    <t>Agrément de radiophysicien associé au DEA de physique radiologique et médicale délivré par l'Université Paul Sabatier (jusqu'en 1995)</t>
   </si>
   <si>
     <t>AMGP</t>
@@ -768,7 +846,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -870,29 +948,33 @@
       <c r="C8" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>64</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -901,10 +983,10 @@
         <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -913,10 +995,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -925,10 +1007,10 @@
         <v>46</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -937,10 +1019,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -949,10 +1031,10 @@
         <v>46</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -961,10 +1043,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -973,10 +1055,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -985,10 +1067,10 @@
         <v>46</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -997,10 +1079,10 @@
         <v>46</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -1009,10 +1091,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -1021,106 +1103,122 @@
         <v>46</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>98</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>101</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>104</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>104</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>109</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -1129,156 +1227,208 @@
         <v>46</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>114</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>117</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>123</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>126</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>129</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>132</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>135</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>138</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>138</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>143</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>146</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D44" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2024-04-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -310,16 +310,13 @@
     <t>Agrément Caisse Régionale d'Assurance Maladie</t>
   </si>
   <si>
-    <t xml:space="preserve">Articles D4364-8 et D4364-9 du code de la santé publique (CSP) ; Arrêté du 1er février 2011 relatif aux professions de prothésiste et orthésiste </t>
+    <t>Articles D4364-8 et D4364-9 du code de la santé publique (CSP) ; Arrêté du 1er février 2011 relatif aux professions de prothésiste et orthésiste</t>
   </si>
   <si>
     <t>AM23</t>
   </si>
   <si>
     <t>Agrément Ministère des anciens combattants</t>
-  </si>
-  <si>
-    <t>Articles D4364-8 et D4364-9 du code de la santé publique (CSP) ; Arrêté du 1er février 2011 relatif aux professions de prothésiste et orthésiste</t>
   </si>
   <si>
     <t>AM24</t>
@@ -1165,7 +1162,7 @@
         <v>100</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -1173,13 +1170,13 @@
         <v>46</v>
       </c>
       <c r="B26" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="D26" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -1187,13 +1184,13 @@
         <v>46</v>
       </c>
       <c r="B27" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="D27" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
@@ -1201,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B28" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="D28" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -1215,10 +1212,10 @@
         <v>46</v>
       </c>
       <c r="B29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -1227,13 +1224,13 @@
         <v>46</v>
       </c>
       <c r="B30" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="D30" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -1241,13 +1238,13 @@
         <v>46</v>
       </c>
       <c r="B31" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="D31" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -1255,13 +1252,13 @@
         <v>46</v>
       </c>
       <c r="B32" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="D32" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -1269,13 +1266,13 @@
         <v>46</v>
       </c>
       <c r="B33" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="D33" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -1283,13 +1280,13 @@
         <v>46</v>
       </c>
       <c r="B34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="D34" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="35">
@@ -1297,13 +1294,13 @@
         <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="D35" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>129</v>
       </c>
     </row>
     <row r="36">
@@ -1311,13 +1308,13 @@
         <v>46</v>
       </c>
       <c r="B36" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="D36" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>132</v>
       </c>
     </row>
     <row r="37">
@@ -1325,13 +1322,13 @@
         <v>46</v>
       </c>
       <c r="B37" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="D37" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>135</v>
       </c>
     </row>
     <row r="38">
@@ -1339,13 +1336,13 @@
         <v>46</v>
       </c>
       <c r="B38" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="D38" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="39">
@@ -1353,13 +1350,13 @@
         <v>46</v>
       </c>
       <c r="B39" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="D39" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40">
@@ -1367,13 +1364,13 @@
         <v>46</v>
       </c>
       <c r="B40" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="D40" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>143</v>
       </c>
     </row>
     <row r="41">
@@ -1381,13 +1378,13 @@
         <v>46</v>
       </c>
       <c r="B41" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="D41" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="42">
@@ -1395,13 +1392,13 @@
         <v>46</v>
       </c>
       <c r="B42" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="D42" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>149</v>
       </c>
     </row>
     <row r="43">
@@ -1409,13 +1406,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="D43" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="44">
@@ -1423,10 +1420,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="D44" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
   <si>
     <t>Property</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -609,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -715,63 +721,71 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -788,52 +802,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -851,579 +865,579 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D44" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -403,7 +403,7 @@
     <t>AM33</t>
   </si>
   <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
+    <t>Docteur en médecine spécialité psychiatrie</t>
   </si>
   <si>
     <t>Article 52 de la loi n° 2004-806 du 9 août 2004 relative à la politique de santé publique ; article 1 du décret n° 2010-534 du 20 mai 2010 relatif à l'usage du titre de psychothérapeute</t>
@@ -454,7 +454,7 @@
     <t>AM39</t>
   </si>
   <si>
-    <t>Autorisation d'exercice psychothérapeute médecin</t>
+    <t>Docteur en médecine + formation + stage</t>
   </si>
   <si>
     <t>Article 52 de la loi n° 2004-806 du 9 août 2004 relative à la politique de santé publique ; article 1 du décret n° 2010-534 du 20 mai 2010 relatif à l'usage du titre de psychothérapeute.</t>
@@ -476,6 +476,15 @@
   </si>
   <si>
     <t>Agrément de radiophysicien associé au DEA de physique radiologique et médicale délivré par l'Université Paul Sabatier (jusqu'en 1995)</t>
+  </si>
+  <si>
+    <t>AM42</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de Psychothérapeute</t>
+  </si>
+  <si>
+    <t>Article 16 du Décret n° 2010-534 du 20 mai 2010 relatif à l'usage du titre de psychothérapeute</t>
   </si>
   <si>
     <t>AMGP</t>
@@ -857,7 +866,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1439,7 +1448,21 @@
       <c r="C44" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="D45" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/ig/main/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
